--- a/main/static/records/Grade9.xlsx
+++ b/main/static/records/Grade9.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
   <si>
     <t xml:space="preserve">RFID NUMBER</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0062</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096586</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">09103154512</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0108</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bacotod</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t xml:space="preserve">09222253416</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0087</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096603</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t xml:space="preserve">09506992835</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0044</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buyet</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t xml:space="preserve">09175497240</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0166</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096608</t>
   </si>
   <si>
@@ -166,6 +181,9 @@
     <t xml:space="preserve">09150540728</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0098</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096437</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t xml:space="preserve">09171788231</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delos Santos</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t xml:space="preserve">09388166505</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0075</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096581</t>
   </si>
   <si>
@@ -226,6 +250,9 @@
     <t xml:space="preserve">09397595203</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0028</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orbon</t>
   </si>
   <si>
@@ -244,6 +271,9 @@
     <t xml:space="preserve">09393215081</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0120</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096559</t>
   </si>
   <si>
@@ -265,6 +295,9 @@
     <t xml:space="preserve">09182434246</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0232</t>
+  </si>
+  <si>
     <t xml:space="preserve">Repuesto</t>
   </si>
   <si>
@@ -283,6 +316,9 @@
     <t xml:space="preserve">_</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0130</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096542</t>
   </si>
   <si>
@@ -301,6 +337,9 @@
     <t xml:space="preserve">09101049598</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0175</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096520</t>
   </si>
   <si>
@@ -320,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">09159236192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-0073</t>
   </si>
 </sst>
 </file>
@@ -428,7 +470,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,6 +491,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -457,6 +503,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -465,6 +515,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,6 +529,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -578,22 +636,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,417 +702,459 @@
       <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="H5" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I10" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>73</v>
+      <c r="B11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="8"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
@@ -1062,7 +1162,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1171,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,7 +1180,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1189,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,7 +1198,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="17"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,17 +1207,17 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
